--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adm-Ramp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adm-Ramp2.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Adm</t>
+  </si>
+  <si>
+    <t>Ramp2</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Adm</t>
-  </si>
-  <si>
-    <t>Ramp2</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.650723999999999</v>
+        <v>15.780133</v>
       </c>
       <c r="H2">
-        <v>25.952172</v>
+        <v>47.340399</v>
       </c>
       <c r="I2">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="J2">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>60.20068566666666</v>
+        <v>71.67520133333333</v>
       </c>
       <c r="N2">
-        <v>180.602057</v>
+        <v>215.025604</v>
       </c>
       <c r="O2">
-        <v>0.6931440095362021</v>
+        <v>0.7843164235321155</v>
       </c>
       <c r="P2">
-        <v>0.6931440095362019</v>
+        <v>0.7843164235321155</v>
       </c>
       <c r="Q2">
-        <v>520.7795163130892</v>
+        <v>1131.044209841777</v>
       </c>
       <c r="R2">
-        <v>4687.015646817804</v>
+        <v>10179.397888576</v>
       </c>
       <c r="S2">
-        <v>0.1658186536508396</v>
+        <v>0.2873859551538769</v>
       </c>
       <c r="T2">
-        <v>0.1658186536508395</v>
+        <v>0.2873859551538768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.650723999999999</v>
+        <v>15.780133</v>
       </c>
       <c r="H3">
-        <v>25.952172</v>
+        <v>47.340399</v>
       </c>
       <c r="I3">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="J3">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>46.210711</v>
       </c>
       <c r="O3">
-        <v>0.1773549982659316</v>
+        <v>0.1685558319854606</v>
       </c>
       <c r="P3">
-        <v>0.1773549982659316</v>
+        <v>0.1685558319854606</v>
       </c>
       <c r="Q3">
-        <v>133.2520355682547</v>
+        <v>243.0703885348543</v>
       </c>
       <c r="R3">
-        <v>1199.268320114292</v>
+        <v>2187.633496813689</v>
       </c>
       <c r="S3">
-        <v>0.0424280764546776</v>
+        <v>0.06176152547430941</v>
       </c>
       <c r="T3">
-        <v>0.0424280764546776</v>
+        <v>0.0617615254743094</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.650723999999999</v>
+        <v>15.780133</v>
       </c>
       <c r="H4">
-        <v>25.952172</v>
+        <v>47.340399</v>
       </c>
       <c r="I4">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="J4">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.04082633333333333</v>
+        <v>1.213835666666667</v>
       </c>
       <c r="N4">
-        <v>0.122479</v>
+        <v>3.641507</v>
       </c>
       <c r="O4">
-        <v>0.0004700698682738952</v>
+        <v>0.0132825751602454</v>
       </c>
       <c r="P4">
-        <v>0.000470069868273895</v>
+        <v>0.0132825751602454</v>
       </c>
       <c r="Q4">
-        <v>0.3531773415986666</v>
+        <v>19.15448826014367</v>
       </c>
       <c r="R4">
-        <v>3.178596074388</v>
+        <v>172.390394341293</v>
       </c>
       <c r="S4">
-        <v>0.0001124533309191555</v>
+        <v>0.004866945833085667</v>
       </c>
       <c r="T4">
-        <v>0.0001124533309191554</v>
+        <v>0.004866945833085667</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.650723999999999</v>
+        <v>15.780133</v>
       </c>
       <c r="H5">
-        <v>25.952172</v>
+        <v>47.340399</v>
       </c>
       <c r="I5">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="J5">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.82361733333333</v>
+        <v>1.940298333333333</v>
       </c>
       <c r="N5">
-        <v>32.470852</v>
+        <v>5.820895</v>
       </c>
       <c r="O5">
-        <v>0.1246219280234256</v>
+        <v>0.02123199964668382</v>
       </c>
       <c r="P5">
-        <v>0.1246219280234256</v>
+        <v>0.02123199964668382</v>
       </c>
       <c r="Q5">
-        <v>93.63212623228264</v>
+        <v>30.61816575967833</v>
       </c>
       <c r="R5">
-        <v>842.6891360905439</v>
+        <v>275.563491837105</v>
       </c>
       <c r="S5">
-        <v>0.02981291050043617</v>
+        <v>0.007779740822983231</v>
       </c>
       <c r="T5">
-        <v>0.02981291050043616</v>
+        <v>0.00777974082298323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.650723999999999</v>
+        <v>15.780133</v>
       </c>
       <c r="H6">
-        <v>25.952172</v>
+        <v>47.340399</v>
       </c>
       <c r="I6">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="J6">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.355539</v>
+        <v>1.081443333333333</v>
       </c>
       <c r="N6">
-        <v>1.066617</v>
+        <v>3.24433</v>
       </c>
       <c r="O6">
-        <v>0.00409363656372682</v>
+        <v>0.01183385259719093</v>
       </c>
       <c r="P6">
-        <v>0.004093636563726819</v>
+        <v>0.01183385259719093</v>
       </c>
       <c r="Q6">
-        <v>3.075669760235999</v>
+        <v>17.06531963196333</v>
       </c>
       <c r="R6">
-        <v>27.681027842124</v>
+        <v>153.58787668767</v>
       </c>
       <c r="S6">
-        <v>0.0009793077545129927</v>
+        <v>0.004336110949300612</v>
       </c>
       <c r="T6">
-        <v>0.0009793077545129927</v>
+        <v>0.004336110949300612</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.650723999999999</v>
+        <v>15.780133</v>
       </c>
       <c r="H7">
-        <v>25.952172</v>
+        <v>47.340399</v>
       </c>
       <c r="I7">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="J7">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.02738933333333333</v>
+        <v>0.07121833333333334</v>
       </c>
       <c r="N7">
-        <v>0.08216799999999999</v>
+        <v>0.213655</v>
       </c>
       <c r="O7">
-        <v>0.0003153577424401686</v>
+        <v>0.0007793170783036338</v>
       </c>
       <c r="P7">
-        <v>0.0003153577424401685</v>
+        <v>0.0007793170783036338</v>
       </c>
       <c r="Q7">
-        <v>0.2369375632106666</v>
+        <v>1.123834772038333</v>
       </c>
       <c r="R7">
-        <v>2.132438068896</v>
+        <v>10.114512948345</v>
       </c>
       <c r="S7">
-        <v>7.544203736938713E-05</v>
+        <v>0.0002855541159107805</v>
       </c>
       <c r="T7">
-        <v>7.544203736938711E-05</v>
+        <v>0.0002855541159107804</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>78.809133</v>
       </c>
       <c r="I8">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236968</v>
       </c>
       <c r="J8">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236966</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>60.20068566666666</v>
+        <v>71.67520133333333</v>
       </c>
       <c r="N8">
-        <v>180.602057</v>
+        <v>215.025604</v>
       </c>
       <c r="O8">
-        <v>0.6931440095362021</v>
+        <v>0.7843164235321155</v>
       </c>
       <c r="P8">
-        <v>0.6931440095362019</v>
+        <v>0.7843164235321155</v>
       </c>
       <c r="Q8">
-        <v>1581.454614465176</v>
+        <v>1882.886824893481</v>
       </c>
       <c r="R8">
-        <v>14233.09153018658</v>
+        <v>16945.98142404133</v>
       </c>
       <c r="S8">
-        <v>0.5035426063548729</v>
+        <v>0.4784209351943553</v>
       </c>
       <c r="T8">
-        <v>0.5035426063548727</v>
+        <v>0.4784209351943552</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>78.809133</v>
       </c>
       <c r="I9">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236968</v>
       </c>
       <c r="J9">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236966</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>46.210711</v>
       </c>
       <c r="O9">
-        <v>0.1773549982659316</v>
+        <v>0.1685558319854606</v>
       </c>
       <c r="P9">
-        <v>0.1773549982659316</v>
+        <v>0.1685558319854606</v>
       </c>
       <c r="Q9">
         <v>404.6473410248404</v>
@@ -1013,10 +1013,10 @@
         <v>3641.826069223564</v>
       </c>
       <c r="S9">
-        <v>0.1288416214354181</v>
+        <v>0.1028164607439777</v>
       </c>
       <c r="T9">
-        <v>0.128841621435418</v>
+        <v>0.1028164607439776</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>78.809133</v>
       </c>
       <c r="I10">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236968</v>
       </c>
       <c r="J10">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236966</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.04082633333333333</v>
+        <v>1.213835666666667</v>
       </c>
       <c r="N10">
-        <v>0.122479</v>
+        <v>3.641507</v>
       </c>
       <c r="O10">
-        <v>0.0004700698682738952</v>
+        <v>0.0132825751602454</v>
       </c>
       <c r="P10">
-        <v>0.000470069868273895</v>
+        <v>0.0132825751602454</v>
       </c>
       <c r="Q10">
-        <v>1.072495977856333</v>
+        <v>31.88711216482566</v>
       </c>
       <c r="R10">
-        <v>9.652463800707</v>
+        <v>286.984009483431</v>
       </c>
       <c r="S10">
-        <v>0.0003414877765414293</v>
+        <v>0.008102166216711526</v>
       </c>
       <c r="T10">
-        <v>0.0003414877765414292</v>
+        <v>0.008102166216711526</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>78.809133</v>
       </c>
       <c r="I11">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236968</v>
       </c>
       <c r="J11">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236966</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.82361733333333</v>
+        <v>1.940298333333333</v>
       </c>
       <c r="N11">
-        <v>32.470852</v>
+        <v>5.820895</v>
       </c>
       <c r="O11">
-        <v>0.1246219280234256</v>
+        <v>0.02123199964668382</v>
       </c>
       <c r="P11">
-        <v>0.1246219280234256</v>
+        <v>0.02123199964668382</v>
       </c>
       <c r="Q11">
-        <v>284.3332993212574</v>
+        <v>50.97107647044834</v>
       </c>
       <c r="R11">
-        <v>2558.999693891316</v>
+        <v>458.739688234035</v>
       </c>
       <c r="S11">
-        <v>0.09053306323439791</v>
+        <v>0.0129511926847937</v>
       </c>
       <c r="T11">
-        <v>0.09053306323439789</v>
+        <v>0.0129511926847937</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,40 +1169,40 @@
         <v>78.809133</v>
       </c>
       <c r="I12">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236968</v>
       </c>
       <c r="J12">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236966</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.355539</v>
+        <v>1.081443333333333</v>
       </c>
       <c r="N12">
-        <v>1.066617</v>
+        <v>3.24433</v>
       </c>
       <c r="O12">
-        <v>0.00409363656372682</v>
+        <v>0.01183385259719093</v>
       </c>
       <c r="P12">
-        <v>0.004093636563726819</v>
+        <v>0.01183385259719093</v>
       </c>
       <c r="Q12">
-        <v>9.339906779229</v>
+        <v>28.40920382954333</v>
       </c>
       <c r="R12">
-        <v>84.059161013061</v>
+        <v>255.68283446589</v>
       </c>
       <c r="S12">
-        <v>0.002973870359419081</v>
+        <v>0.007218467772233779</v>
       </c>
       <c r="T12">
-        <v>0.00297387035941908</v>
+        <v>0.007218467772233778</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>78.809133</v>
       </c>
       <c r="I13">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236968</v>
       </c>
       <c r="J13">
-        <v>0.7264617444963627</v>
+        <v>0.6099845940236966</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02738933333333333</v>
+        <v>0.07121833333333334</v>
       </c>
       <c r="N13">
-        <v>0.08216799999999999</v>
+        <v>0.213655</v>
       </c>
       <c r="O13">
-        <v>0.0003153577424401686</v>
+        <v>0.0007793170783036338</v>
       </c>
       <c r="P13">
-        <v>0.0003153577424401685</v>
+        <v>0.0007793170783036338</v>
       </c>
       <c r="Q13">
-        <v>0.7195098711493333</v>
+        <v>1.870885034568334</v>
       </c>
       <c r="R13">
-        <v>6.475588840344</v>
+        <v>16.837965311115</v>
       </c>
       <c r="S13">
-        <v>0.0002290953357135196</v>
+        <v>0.0004753714116247756</v>
       </c>
       <c r="T13">
-        <v>0.0002290953357135195</v>
+        <v>0.0004753714116247755</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.021265</v>
+        <v>0.973204</v>
       </c>
       <c r="H14">
-        <v>0.063795</v>
+        <v>2.919612</v>
       </c>
       <c r="I14">
-        <v>0.0005880616271992926</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="J14">
-        <v>0.0005880616271992925</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>60.20068566666666</v>
+        <v>71.67520133333333</v>
       </c>
       <c r="N14">
-        <v>180.602057</v>
+        <v>215.025604</v>
       </c>
       <c r="O14">
-        <v>0.6931440095362021</v>
+        <v>0.7843164235321155</v>
       </c>
       <c r="P14">
-        <v>0.6931440095362019</v>
+        <v>0.7843164235321155</v>
       </c>
       <c r="Q14">
-        <v>1.280167580701667</v>
+        <v>69.75459263840533</v>
       </c>
       <c r="R14">
-        <v>11.521508226315</v>
+        <v>627.791333745648</v>
       </c>
       <c r="S14">
-        <v>0.000407611394131301</v>
+        <v>0.01772387856931076</v>
       </c>
       <c r="T14">
-        <v>0.0004076113941313008</v>
+        <v>0.01772387856931076</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.021265</v>
+        <v>0.973204</v>
       </c>
       <c r="H15">
-        <v>0.063795</v>
+        <v>2.919612</v>
       </c>
       <c r="I15">
-        <v>0.0005880616271992926</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="J15">
-        <v>0.0005880616271992925</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>46.210711</v>
       </c>
       <c r="O15">
-        <v>0.1773549982659316</v>
+        <v>0.1685558319854606</v>
       </c>
       <c r="P15">
-        <v>0.1773549982659316</v>
+        <v>0.1685558319854606</v>
       </c>
       <c r="Q15">
-        <v>0.3275569231383334</v>
+        <v>14.99081626268133</v>
       </c>
       <c r="R15">
-        <v>2.948012308245</v>
+        <v>134.917346364132</v>
       </c>
       <c r="S15">
-        <v>0.0001042956688721915</v>
+        <v>0.003809002347299596</v>
       </c>
       <c r="T15">
-        <v>0.0001042956688721914</v>
+        <v>0.003809002347299595</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.021265</v>
+        <v>0.973204</v>
       </c>
       <c r="H16">
-        <v>0.063795</v>
+        <v>2.919612</v>
       </c>
       <c r="I16">
-        <v>0.0005880616271992926</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="J16">
-        <v>0.0005880616271992925</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1429,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.04082633333333333</v>
+        <v>1.213835666666667</v>
       </c>
       <c r="N16">
-        <v>0.122479</v>
+        <v>3.641507</v>
       </c>
       <c r="O16">
-        <v>0.0004700698682738952</v>
+        <v>0.0132825751602454</v>
       </c>
       <c r="P16">
-        <v>0.000470069868273895</v>
+        <v>0.0132825751602454</v>
       </c>
       <c r="Q16">
-        <v>0.0008681719783333334</v>
+        <v>1.181309726142666</v>
       </c>
       <c r="R16">
-        <v>0.007813547804999999</v>
+        <v>10.631787535284</v>
       </c>
       <c r="S16">
-        <v>2.764300516345039E-07</v>
+        <v>0.0003001578727214976</v>
       </c>
       <c r="T16">
-        <v>2.764300516345038E-07</v>
+        <v>0.0003001578727214976</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.021265</v>
+        <v>0.973204</v>
       </c>
       <c r="H17">
-        <v>0.063795</v>
+        <v>2.919612</v>
       </c>
       <c r="I17">
-        <v>0.0005880616271992926</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="J17">
-        <v>0.0005880616271992925</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.82361733333333</v>
+        <v>1.940298333333333</v>
       </c>
       <c r="N17">
-        <v>32.470852</v>
+        <v>5.820895</v>
       </c>
       <c r="O17">
-        <v>0.1246219280234256</v>
+        <v>0.02123199964668382</v>
       </c>
       <c r="P17">
-        <v>0.1246219280234256</v>
+        <v>0.02123199964668382</v>
       </c>
       <c r="Q17">
-        <v>0.2301642225933334</v>
+        <v>1.888306099193333</v>
       </c>
       <c r="R17">
-        <v>2.07147800334</v>
+        <v>16.99475489274</v>
       </c>
       <c r="S17">
-        <v>7.328537377816878E-05</v>
+        <v>0.0004797979134834017</v>
       </c>
       <c r="T17">
-        <v>7.328537377816875E-05</v>
+        <v>0.0004797979134834017</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,55 +1526,55 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.021265</v>
+        <v>0.973204</v>
       </c>
       <c r="H18">
-        <v>0.063795</v>
+        <v>2.919612</v>
       </c>
       <c r="I18">
-        <v>0.0005880616271992926</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="J18">
-        <v>0.0005880616271992925</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.355539</v>
+        <v>1.081443333333333</v>
       </c>
       <c r="N18">
-        <v>1.066617</v>
+        <v>3.24433</v>
       </c>
       <c r="O18">
-        <v>0.00409363656372682</v>
+        <v>0.01183385259719093</v>
       </c>
       <c r="P18">
-        <v>0.004093636563726819</v>
+        <v>0.01183385259719093</v>
       </c>
       <c r="Q18">
-        <v>0.007560536835000001</v>
+        <v>1.052464977773333</v>
       </c>
       <c r="R18">
-        <v>0.068044831515</v>
+        <v>9.472184799960001</v>
       </c>
       <c r="S18">
-        <v>2.407310578827714E-06</v>
+        <v>0.000267419832285517</v>
       </c>
       <c r="T18">
-        <v>2.407310578827713E-06</v>
+        <v>0.000267419832285517</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,25 +1588,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.021265</v>
+        <v>0.973204</v>
       </c>
       <c r="H19">
-        <v>0.063795</v>
+        <v>2.919612</v>
       </c>
       <c r="I19">
-        <v>0.0005880616271992926</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="J19">
-        <v>0.0005880616271992925</v>
+        <v>0.02259786743912933</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.02738933333333333</v>
+        <v>0.07121833333333334</v>
       </c>
       <c r="N19">
-        <v>0.08216799999999999</v>
+        <v>0.213655</v>
       </c>
       <c r="O19">
-        <v>0.0003153577424401686</v>
+        <v>0.0007793170783036338</v>
       </c>
       <c r="P19">
-        <v>0.0003153577424401685</v>
+        <v>0.0007793170783036338</v>
       </c>
       <c r="Q19">
-        <v>0.0005824341733333334</v>
+        <v>0.06930996687333334</v>
       </c>
       <c r="R19">
-        <v>0.00524190756</v>
+        <v>0.62378970186</v>
       </c>
       <c r="S19">
-        <v>1.85449787169261E-07</v>
+        <v>1.761090402855509E-05</v>
       </c>
       <c r="T19">
-        <v>1.854497871692609E-07</v>
+        <v>1.761090402855509E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.9005953333333334</v>
+        <v>0.01491966666666667</v>
       </c>
       <c r="H20">
-        <v>2.701786</v>
+        <v>0.044759</v>
       </c>
       <c r="I20">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="J20">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>60.20068566666666</v>
+        <v>71.67520133333333</v>
       </c>
       <c r="N20">
-        <v>180.602057</v>
+        <v>215.025604</v>
       </c>
       <c r="O20">
-        <v>0.6931440095362021</v>
+        <v>0.7843164235321155</v>
       </c>
       <c r="P20">
-        <v>0.6931440095362019</v>
+        <v>0.7843164235321155</v>
       </c>
       <c r="Q20">
-        <v>54.21645657486689</v>
+        <v>1.069370112159556</v>
       </c>
       <c r="R20">
-        <v>487.948109173802</v>
+        <v>9.624331009436</v>
       </c>
       <c r="S20">
-        <v>0.01726277542290824</v>
+        <v>0.0002717152419170015</v>
       </c>
       <c r="T20">
-        <v>0.01726277542290823</v>
+        <v>0.0002717152419170015</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.9005953333333334</v>
+        <v>0.01491966666666667</v>
       </c>
       <c r="H21">
-        <v>2.701786</v>
+        <v>0.044759</v>
       </c>
       <c r="I21">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="J21">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>46.210711</v>
       </c>
       <c r="O21">
-        <v>0.1773549982659316</v>
+        <v>0.1685558319854606</v>
       </c>
       <c r="P21">
-        <v>0.1773549982659316</v>
+        <v>0.1685558319854606</v>
       </c>
       <c r="Q21">
-        <v>13.87238355887178</v>
+        <v>0.2298161348498889</v>
       </c>
       <c r="R21">
-        <v>124.851452029846</v>
+        <v>2.068345213649</v>
       </c>
       <c r="S21">
-        <v>0.004417032338263542</v>
+        <v>5.839376467242312E-05</v>
       </c>
       <c r="T21">
-        <v>0.00441703233826354</v>
+        <v>5.839376467242312E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.9005953333333334</v>
+        <v>0.01491966666666667</v>
       </c>
       <c r="H22">
-        <v>2.701786</v>
+        <v>0.044759</v>
       </c>
       <c r="I22">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="J22">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.04082633333333333</v>
+        <v>1.213835666666667</v>
       </c>
       <c r="N22">
-        <v>0.122479</v>
+        <v>3.641507</v>
       </c>
       <c r="O22">
-        <v>0.0004700698682738952</v>
+        <v>0.0132825751602454</v>
       </c>
       <c r="P22">
-        <v>0.000470069868273895</v>
+        <v>0.0132825751602454</v>
       </c>
       <c r="Q22">
-        <v>0.03676800527711111</v>
+        <v>0.01811002353477777</v>
       </c>
       <c r="R22">
-        <v>0.330912047494</v>
+        <v>0.162990211813</v>
       </c>
       <c r="S22">
-        <v>1.170710625417948E-05</v>
+        <v>4.601558777379155E-06</v>
       </c>
       <c r="T22">
-        <v>1.170710625417947E-05</v>
+        <v>4.601558777379155E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.9005953333333334</v>
+        <v>0.01491966666666667</v>
       </c>
       <c r="H23">
-        <v>2.701786</v>
+        <v>0.044759</v>
       </c>
       <c r="I23">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="J23">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.82361733333333</v>
+        <v>1.940298333333333</v>
       </c>
       <c r="N23">
-        <v>32.470852</v>
+        <v>5.820895</v>
       </c>
       <c r="O23">
-        <v>0.1246219280234256</v>
+        <v>0.02123199964668382</v>
       </c>
       <c r="P23">
-        <v>0.1246219280234256</v>
+        <v>0.02123199964668382</v>
       </c>
       <c r="Q23">
-        <v>9.747699260185778</v>
+        <v>0.02894860436722222</v>
       </c>
       <c r="R23">
-        <v>87.729293341672</v>
+        <v>0.260537439305</v>
       </c>
       <c r="S23">
-        <v>0.003103713408239259</v>
+        <v>7.355523545458636E-06</v>
       </c>
       <c r="T23">
-        <v>0.003103713408239258</v>
+        <v>7.355523545458636E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,55 +1898,55 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.9005953333333334</v>
+        <v>0.01491966666666667</v>
       </c>
       <c r="H24">
-        <v>2.701786</v>
+        <v>0.044759</v>
       </c>
       <c r="I24">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="J24">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.355539</v>
+        <v>1.081443333333333</v>
       </c>
       <c r="N24">
-        <v>1.066617</v>
+        <v>3.24433</v>
       </c>
       <c r="O24">
-        <v>0.00409363656372682</v>
+        <v>0.01183385259719093</v>
       </c>
       <c r="P24">
-        <v>0.004093636563726819</v>
+        <v>0.01183385259719093</v>
       </c>
       <c r="Q24">
-        <v>0.320196764218</v>
+        <v>0.01613477405222222</v>
       </c>
       <c r="R24">
-        <v>2.881770877962</v>
+        <v>0.14521296647</v>
       </c>
       <c r="S24">
-        <v>0.0001019521595662452</v>
+        <v>4.099669501724015E-06</v>
       </c>
       <c r="T24">
-        <v>0.0001019521595662452</v>
+        <v>4.099669501724016E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,25 +1960,25 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.9005953333333334</v>
+        <v>0.01491966666666667</v>
       </c>
       <c r="H25">
-        <v>2.701786</v>
+        <v>0.044759</v>
       </c>
       <c r="I25">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="J25">
-        <v>0.02490503443066491</v>
+        <v>0.0003464357417040312</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.02738933333333333</v>
+        <v>0.07121833333333334</v>
       </c>
       <c r="N25">
-        <v>0.08216799999999999</v>
+        <v>0.213655</v>
       </c>
       <c r="O25">
-        <v>0.0003153577424401686</v>
+        <v>0.0007793170783036338</v>
       </c>
       <c r="P25">
-        <v>0.0003153577424401685</v>
+        <v>0.0007793170783036338</v>
       </c>
       <c r="Q25">
-        <v>0.02466670578311111</v>
+        <v>0.001062553793888889</v>
       </c>
       <c r="R25">
-        <v>0.222000352048</v>
+        <v>0.009562984145</v>
       </c>
       <c r="S25">
-        <v>7.853995433449156E-06</v>
+        <v>2.699832900447379E-07</v>
       </c>
       <c r="T25">
-        <v>7.853995433449152E-06</v>
+        <v>2.699832900447379E-07</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.3188806666666666</v>
+        <v>0.02822</v>
       </c>
       <c r="H26">
-        <v>0.956642</v>
+        <v>0.08466</v>
       </c>
       <c r="I26">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="J26">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>60.20068566666666</v>
+        <v>71.67520133333333</v>
       </c>
       <c r="N26">
-        <v>180.602057</v>
+        <v>215.025604</v>
       </c>
       <c r="O26">
-        <v>0.6931440095362021</v>
+        <v>0.7843164235321155</v>
       </c>
       <c r="P26">
-        <v>0.6931440095362019</v>
+        <v>0.7843164235321155</v>
       </c>
       <c r="Q26">
-        <v>19.19683477917711</v>
+        <v>2.022674181626666</v>
       </c>
       <c r="R26">
-        <v>172.771513012594</v>
+        <v>18.20406763464</v>
       </c>
       <c r="S26">
-        <v>0.006112362713450207</v>
+        <v>0.00051393937265563</v>
       </c>
       <c r="T26">
-        <v>0.006112362713450205</v>
+        <v>0.00051393937265563</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.3188806666666666</v>
+        <v>0.02822</v>
       </c>
       <c r="H27">
-        <v>0.956642</v>
+        <v>0.08466</v>
       </c>
       <c r="I27">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="J27">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>46.210711</v>
       </c>
       <c r="O27">
-        <v>0.1773549982659316</v>
+        <v>0.1685558319854606</v>
       </c>
       <c r="P27">
-        <v>0.1773549982659316</v>
+        <v>0.1685558319854606</v>
       </c>
       <c r="Q27">
-        <v>4.911900776940223</v>
+        <v>0.4346887548066667</v>
       </c>
       <c r="R27">
-        <v>44.207106992462</v>
+        <v>3.91219879326</v>
       </c>
       <c r="S27">
-        <v>0.001563972368700227</v>
+        <v>0.000110449655201576</v>
       </c>
       <c r="T27">
-        <v>0.001563972368700226</v>
+        <v>0.000110449655201576</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,25 +2146,25 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.3188806666666666</v>
+        <v>0.02822</v>
       </c>
       <c r="H28">
-        <v>0.956642</v>
+        <v>0.08466</v>
       </c>
       <c r="I28">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="J28">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,28 +2173,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.04082633333333333</v>
+        <v>1.213835666666667</v>
       </c>
       <c r="N28">
-        <v>0.122479</v>
+        <v>3.641507</v>
       </c>
       <c r="O28">
-        <v>0.0004700698682738952</v>
+        <v>0.0132825751602454</v>
       </c>
       <c r="P28">
-        <v>0.000470069868273895</v>
+        <v>0.0132825751602454</v>
       </c>
       <c r="Q28">
-        <v>0.01301872839088889</v>
+        <v>0.03425444251333333</v>
       </c>
       <c r="R28">
-        <v>0.117168555518</v>
+        <v>0.30828998262</v>
       </c>
       <c r="S28">
-        <v>4.145224507496434E-06</v>
+        <v>8.703678949326822E-06</v>
       </c>
       <c r="T28">
-        <v>4.145224507496432E-06</v>
+        <v>8.703678949326823E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,25 +2208,25 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.3188806666666666</v>
+        <v>0.02822</v>
       </c>
       <c r="H29">
-        <v>0.956642</v>
+        <v>0.08466</v>
       </c>
       <c r="I29">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="J29">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.82361733333333</v>
+        <v>1.940298333333333</v>
       </c>
       <c r="N29">
-        <v>32.470852</v>
+        <v>5.820895</v>
       </c>
       <c r="O29">
-        <v>0.1246219280234256</v>
+        <v>0.02123199964668382</v>
       </c>
       <c r="P29">
-        <v>0.1246219280234256</v>
+        <v>0.02123199964668382</v>
       </c>
       <c r="Q29">
-        <v>3.451442310998222</v>
+        <v>0.05475521896666666</v>
       </c>
       <c r="R29">
-        <v>31.062980798984</v>
+        <v>0.4927969707</v>
       </c>
       <c r="S29">
-        <v>0.001098955506574103</v>
+        <v>1.391270187802516E-05</v>
       </c>
       <c r="T29">
-        <v>0.001098955506574103</v>
+        <v>1.391270187802516E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,55 +2270,55 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.02822</v>
+      </c>
+      <c r="H30">
+        <v>0.08466</v>
+      </c>
+      <c r="I30">
+        <v>0.0006552704460033352</v>
+      </c>
+      <c r="J30">
+        <v>0.0006552704460033352</v>
+      </c>
+      <c r="K30">
         <v>2</v>
       </c>
-      <c r="F30">
+      <c r="L30">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G30">
-        <v>0.3188806666666666</v>
-      </c>
-      <c r="H30">
-        <v>0.956642</v>
-      </c>
-      <c r="I30">
-        <v>0.008818315717018348</v>
-      </c>
-      <c r="J30">
-        <v>0.008818315717018348</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
       <c r="M30">
-        <v>0.355539</v>
+        <v>1.081443333333333</v>
       </c>
       <c r="N30">
-        <v>1.066617</v>
+        <v>3.24433</v>
       </c>
       <c r="O30">
-        <v>0.00409363656372682</v>
+        <v>0.01183385259719093</v>
       </c>
       <c r="P30">
-        <v>0.004093636563726819</v>
+        <v>0.01183385259719093</v>
       </c>
       <c r="Q30">
-        <v>0.113374513346</v>
+        <v>0.03051833086666667</v>
       </c>
       <c r="R30">
-        <v>1.020370620114</v>
+        <v>0.2746649778</v>
       </c>
       <c r="S30">
-        <v>3.60989796496732E-05</v>
+        <v>7.754373869299027E-06</v>
       </c>
       <c r="T30">
-        <v>3.609897964967319E-05</v>
+        <v>7.754373869299027E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,25 +2332,25 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.3188806666666666</v>
+        <v>0.02822</v>
       </c>
       <c r="H31">
-        <v>0.956642</v>
+        <v>0.08466</v>
       </c>
       <c r="I31">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="J31">
-        <v>0.008818315717018348</v>
+        <v>0.0006552704460033352</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,28 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.02738933333333333</v>
+        <v>0.07121833333333334</v>
       </c>
       <c r="N31">
-        <v>0.08216799999999999</v>
+        <v>0.213655</v>
       </c>
       <c r="O31">
-        <v>0.0003153577424401686</v>
+        <v>0.0007793170783036338</v>
       </c>
       <c r="P31">
-        <v>0.0003153577424401685</v>
+        <v>0.0007793170783036338</v>
       </c>
       <c r="Q31">
-        <v>0.008733928872888888</v>
+        <v>0.002009781366666667</v>
       </c>
       <c r="R31">
-        <v>0.07860535985599999</v>
+        <v>0.0180880323</v>
       </c>
       <c r="S31">
-        <v>2.780924136643563E-06</v>
+        <v>5.106634494780382E-07</v>
       </c>
       <c r="T31">
-        <v>2.780924136643562E-06</v>
+        <v>5.106634494780382E-07</v>
       </c>
     </row>
   </sheetData>
